--- a/docs/Classifcation Reports/RandomForestClassifier()_4.xlsx
+++ b/docs/Classifcation Reports/RandomForestClassifier()_4.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7491215741391427</v>
+        <v>0.8130021913805697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9570077386070507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8426877470355731</v>
+        <v>0.8791469194312795</v>
       </c>
       <c r="E2" t="n">
-        <v>1107</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9528158295281582</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9219440353460973</v>
+        <v>0.9409937888198758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.937125748502994</v>
+        <v>0.9468750000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>679</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8728010825439784</v>
+        <v>0.8489116517285531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8143939393939394</v>
+        <v>0.854381443298969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8425865447419988</v>
+        <v>0.8516377649325625</v>
       </c>
       <c r="E4" t="n">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9421487603305785</v>
+        <v>0.935064935064935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3149171270718232</v>
+        <v>0.4033613445378151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4720496894409937</v>
+        <v>0.5636007827788649</v>
       </c>
       <c r="E5" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8336734693877551</v>
+        <v>0.8591836734693877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8336734693877551</v>
+        <v>0.8591836734693877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8336734693877551</v>
+        <v>0.8591836734693877</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8336734693877551</v>
+        <v>0.8591836734693877</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8792218116354644</v>
+        <v>0.8874522417133258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7535545161937057</v>
+        <v>0.7889360788159276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7736124324303899</v>
+        <v>0.8103151167856768</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8532502855225002</v>
+        <v>0.867931229130808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8336734693877551</v>
+        <v>0.8591836734693877</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8188347789847671</v>
+        <v>0.8484053579381978</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
